--- a/Code/Results/Cases/Case_2_167/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_167/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.016933908968847</v>
+        <v>1.040415947832038</v>
       </c>
       <c r="D2">
-        <v>1.034734716160901</v>
+        <v>1.048165430170753</v>
       </c>
       <c r="E2">
-        <v>1.031493069224149</v>
+        <v>1.055424580740648</v>
       </c>
       <c r="F2">
-        <v>1.041527619107699</v>
+        <v>1.06174510265412</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05088077450699</v>
+        <v>1.04267959705488</v>
       </c>
       <c r="J2">
-        <v>1.038619663094521</v>
+        <v>1.045502674048733</v>
       </c>
       <c r="K2">
-        <v>1.04573045551922</v>
+        <v>1.050926036191133</v>
       </c>
       <c r="L2">
-        <v>1.042530421303323</v>
+        <v>1.058165075871118</v>
       </c>
       <c r="M2">
-        <v>1.052437206720737</v>
+        <v>1.064468329782145</v>
       </c>
       <c r="N2">
-        <v>1.040094622147472</v>
+        <v>1.046987407766715</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.020692260203195</v>
+        <v>1.041217604776512</v>
       </c>
       <c r="D3">
-        <v>1.037526258544498</v>
+        <v>1.048788668587357</v>
       </c>
       <c r="E3">
-        <v>1.035017184220591</v>
+        <v>1.056258035903114</v>
       </c>
       <c r="F3">
-        <v>1.044937045178419</v>
+        <v>1.062535270487316</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051928201204729</v>
+        <v>1.042861480100807</v>
       </c>
       <c r="J3">
-        <v>1.040634298724493</v>
+        <v>1.045950677701138</v>
       </c>
       <c r="K3">
-        <v>1.047700484566722</v>
+        <v>1.051361754033107</v>
       </c>
       <c r="L3">
-        <v>1.04522079205766</v>
+        <v>1.058811918596419</v>
       </c>
       <c r="M3">
-        <v>1.055025506457294</v>
+        <v>1.065073240252192</v>
       </c>
       <c r="N3">
-        <v>1.042112118791104</v>
+        <v>1.047436047635693</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.023080932937112</v>
+        <v>1.041736979809363</v>
       </c>
       <c r="D4">
-        <v>1.039303815988213</v>
+        <v>1.04919255604656</v>
       </c>
       <c r="E4">
-        <v>1.037265734217744</v>
+        <v>1.056798761180355</v>
       </c>
       <c r="F4">
-        <v>1.047110301543086</v>
+        <v>1.063047670460327</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052586300300372</v>
+        <v>1.042978357773788</v>
       </c>
       <c r="J4">
-        <v>1.041912102655777</v>
+        <v>1.04624052594192</v>
       </c>
       <c r="K4">
-        <v>1.048949937485668</v>
+        <v>1.051643609634729</v>
       </c>
       <c r="L4">
-        <v>1.046934273632999</v>
+        <v>1.059231241356021</v>
       </c>
       <c r="M4">
-        <v>1.056671545284721</v>
+        <v>1.065465105241255</v>
       </c>
       <c r="N4">
-        <v>1.043391737350536</v>
+        <v>1.047726307494223</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024075084418451</v>
+        <v>1.041955478738236</v>
       </c>
       <c r="D5">
-        <v>1.040044392607347</v>
+        <v>1.049362494638217</v>
       </c>
       <c r="E5">
-        <v>1.038203640704089</v>
+        <v>1.057026420937879</v>
       </c>
       <c r="F5">
-        <v>1.04801629075821</v>
+        <v>1.063263346730049</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05285834291336</v>
+        <v>1.043027297806489</v>
       </c>
       <c r="J5">
-        <v>1.04244326227007</v>
+        <v>1.04636236723707</v>
       </c>
       <c r="K5">
-        <v>1.049469292113349</v>
+        <v>1.051762080515293</v>
       </c>
       <c r="L5">
-        <v>1.047648245425323</v>
+        <v>1.059407707811747</v>
       </c>
       <c r="M5">
-        <v>1.057356827989373</v>
+        <v>1.065629950718166</v>
       </c>
       <c r="N5">
-        <v>1.043923651272407</v>
+        <v>1.047848321817987</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024241426280859</v>
+        <v>1.041992174628584</v>
       </c>
       <c r="D6">
-        <v>1.040168350280682</v>
+        <v>1.049391036483504</v>
       </c>
       <c r="E6">
-        <v>1.038360692754315</v>
+        <v>1.057064665823094</v>
       </c>
       <c r="F6">
-        <v>1.04816796814993</v>
+        <v>1.063299575105909</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052903751375784</v>
+        <v>1.043035503576658</v>
       </c>
       <c r="J6">
-        <v>1.042532096929479</v>
+        <v>1.046382824249078</v>
       </c>
       <c r="K6">
-        <v>1.049556151084838</v>
+        <v>1.051781971014188</v>
       </c>
       <c r="L6">
-        <v>1.047767755545236</v>
+        <v>1.059437347997364</v>
       </c>
       <c r="M6">
-        <v>1.057471501314735</v>
+        <v>1.065657635132789</v>
       </c>
       <c r="N6">
-        <v>1.044012612087222</v>
+        <v>1.047868807881299</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.02309425592038</v>
+        <v>1.041739898801196</v>
       </c>
       <c r="D7">
-        <v>1.039313737740092</v>
+        <v>1.049194826209662</v>
       </c>
       <c r="E7">
-        <v>1.037278295289534</v>
+        <v>1.056801801852327</v>
       </c>
       <c r="F7">
-        <v>1.047122437177604</v>
+        <v>1.063050551305126</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052589953400762</v>
+        <v>1.042979012481392</v>
       </c>
       <c r="J7">
-        <v>1.041919223535379</v>
+        <v>1.046242154035762</v>
       </c>
       <c r="K7">
-        <v>1.048956900190825</v>
+        <v>1.051645192733485</v>
       </c>
       <c r="L7">
-        <v>1.046943838582559</v>
+        <v>1.059233598591868</v>
       </c>
       <c r="M7">
-        <v>1.056680728212747</v>
+        <v>1.065467307502415</v>
       </c>
       <c r="N7">
-        <v>1.043398868342604</v>
+        <v>1.047727937900145</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.018213199386302</v>
+        <v>1.040686736008059</v>
       </c>
       <c r="D8">
-        <v>1.035684193486744</v>
+        <v>1.048375928981011</v>
       </c>
       <c r="E8">
-        <v>1.032690781217373</v>
+        <v>1.0557059547098</v>
       </c>
       <c r="F8">
-        <v>1.042686792657853</v>
+        <v>1.062011912797706</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051238878541988</v>
+        <v>1.042741233129931</v>
       </c>
       <c r="J8">
-        <v>1.039305951400095</v>
+        <v>1.045654086491492</v>
       </c>
       <c r="K8">
-        <v>1.046401557224784</v>
+        <v>1.05107330544564</v>
       </c>
       <c r="L8">
-        <v>1.043445419674873</v>
+        <v>1.058383518465967</v>
       </c>
       <c r="M8">
-        <v>1.053317997600892</v>
+        <v>1.064672668441547</v>
       </c>
       <c r="N8">
-        <v>1.040781885061142</v>
+        <v>1.047139035232511</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.009266790171809</v>
+        <v>1.038835981786538</v>
       </c>
       <c r="D9">
-        <v>1.02905997690944</v>
+        <v>1.046937685510188</v>
       </c>
       <c r="E9">
-        <v>1.024352950810576</v>
+        <v>1.053785930256196</v>
       </c>
       <c r="F9">
-        <v>1.034608500834684</v>
+        <v>1.06019028068888</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048703641786183</v>
+        <v>1.04231604356288</v>
       </c>
       <c r="J9">
-        <v>1.034496505116837</v>
+        <v>1.044617587357594</v>
       </c>
       <c r="K9">
-        <v>1.04169853631652</v>
+        <v>1.050064991171079</v>
       </c>
       <c r="L9">
-        <v>1.037062899216548</v>
+        <v>1.056891559140427</v>
       </c>
       <c r="M9">
-        <v>1.047163969368872</v>
+        <v>1.063275914679038</v>
       </c>
       <c r="N9">
-        <v>1.03596560881251</v>
+        <v>1.046101064150954</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.003049372636494</v>
+        <v>1.037605650610359</v>
       </c>
       <c r="D10">
-        <v>1.024478130414268</v>
+        <v>1.045982166684803</v>
       </c>
       <c r="E10">
-        <v>1.018608127857659</v>
+        <v>1.052513432535449</v>
       </c>
       <c r="F10">
-        <v>1.029031573631731</v>
+        <v>1.0589817528378</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046903851727419</v>
+        <v>1.042028465684319</v>
       </c>
       <c r="J10">
-        <v>1.03114252527907</v>
+        <v>1.043926498849202</v>
       </c>
       <c r="K10">
-        <v>1.038419055550612</v>
+        <v>1.049392475213435</v>
       </c>
       <c r="L10">
-        <v>1.032649342751306</v>
+        <v>1.05590104983795</v>
       </c>
       <c r="M10">
-        <v>1.042895718444806</v>
+        <v>1.062347200971661</v>
       </c>
       <c r="N10">
-        <v>1.032606865938667</v>
+        <v>1.045408994217611</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000292141310786</v>
+        <v>1.03707375765913</v>
       </c>
       <c r="D11">
-        <v>1.022451981605651</v>
+        <v>1.045569225157236</v>
       </c>
       <c r="E11">
-        <v>1.016072725208508</v>
+        <v>1.051964236581255</v>
       </c>
       <c r="F11">
-        <v>1.026567721778239</v>
+        <v>1.058459871042979</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046097145866805</v>
+        <v>1.041902974020509</v>
       </c>
       <c r="J11">
-        <v>1.029652771911097</v>
+        <v>1.043627245329493</v>
       </c>
       <c r="K11">
-        <v>1.036962553801033</v>
+        <v>1.049101212776625</v>
       </c>
       <c r="L11">
-        <v>1.030697768085559</v>
+        <v>1.055473149763529</v>
       </c>
       <c r="M11">
-        <v>1.041005419112629</v>
+        <v>1.061945661499806</v>
       </c>
       <c r="N11">
-        <v>1.031114996950034</v>
+        <v>1.04510931572358</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9992577588149242</v>
+        <v>1.036876318254227</v>
       </c>
       <c r="D12">
-        <v>1.021692784914614</v>
+        <v>1.045415963060551</v>
       </c>
       <c r="E12">
-        <v>1.015123444927256</v>
+        <v>1.051760513922685</v>
       </c>
       <c r="F12">
-        <v>1.025644851742399</v>
+        <v>1.058266236195366</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045793260542369</v>
+        <v>1.041856216072839</v>
       </c>
       <c r="J12">
-        <v>1.029093564873675</v>
+        <v>1.043516089437607</v>
       </c>
       <c r="K12">
-        <v>1.036415860913692</v>
+        <v>1.048993017516726</v>
       </c>
       <c r="L12">
-        <v>1.029966528099628</v>
+        <v>1.05531436018036</v>
       </c>
       <c r="M12">
-        <v>1.04029669439445</v>
+        <v>1.06179660369647</v>
       </c>
       <c r="N12">
-        <v>1.030554995774478</v>
+        <v>1.044998001977576</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9994801075588191</v>
+        <v>1.03691866379537</v>
       </c>
       <c r="D13">
-        <v>1.021855937903594</v>
+        <v>1.045448832714077</v>
       </c>
       <c r="E13">
-        <v>1.01532741448596</v>
+        <v>1.051804200728426</v>
       </c>
       <c r="F13">
-        <v>1.025843163673023</v>
+        <v>1.058307761750944</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045858638869922</v>
+        <v>1.041866252349694</v>
       </c>
       <c r="J13">
-        <v>1.0292137848844</v>
+        <v>1.043539932723702</v>
       </c>
       <c r="K13">
-        <v>1.036533388987552</v>
+        <v>1.049016226080977</v>
       </c>
       <c r="L13">
-        <v>1.030123672659481</v>
+        <v>1.055348414198293</v>
       </c>
       <c r="M13">
-        <v>1.040449020418639</v>
+        <v>1.06182857291764</v>
       </c>
       <c r="N13">
-        <v>1.030675386511407</v>
+        <v>1.045021879123873</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000206850197197</v>
+        <v>1.037057434607641</v>
       </c>
       <c r="D14">
-        <v>1.022389362241687</v>
+        <v>1.04555655394891</v>
       </c>
       <c r="E14">
-        <v>1.015994412748927</v>
+        <v>1.051947391217706</v>
       </c>
       <c r="F14">
-        <v>1.026491595768977</v>
+        <v>1.058443860721903</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046072113827009</v>
+        <v>1.041899111942568</v>
       </c>
       <c r="J14">
-        <v>1.029606668252795</v>
+        <v>1.043618057137196</v>
       </c>
       <c r="K14">
-        <v>1.036917481157511</v>
+        <v>1.049092269466124</v>
       </c>
       <c r="L14">
-        <v>1.030637454393932</v>
+        <v>1.055460021065101</v>
       </c>
       <c r="M14">
-        <v>1.040946971530869</v>
+        <v>1.061933338451824</v>
       </c>
       <c r="N14">
-        <v>1.031068827819249</v>
+        <v>1.045100114482995</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000653251612798</v>
+        <v>1.037142953076064</v>
       </c>
       <c r="D15">
-        <v>1.02271714076175</v>
+        <v>1.045622940882818</v>
       </c>
       <c r="E15">
-        <v>1.016404365944382</v>
+        <v>1.052035651866177</v>
       </c>
       <c r="F15">
-        <v>1.026890087793354</v>
+        <v>1.058527744381403</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046203077262283</v>
+        <v>1.041919338663305</v>
       </c>
       <c r="J15">
-        <v>1.029847955226313</v>
+        <v>1.043666192231891</v>
       </c>
       <c r="K15">
-        <v>1.037153373614341</v>
+        <v>1.049139121363197</v>
       </c>
       <c r="L15">
-        <v>1.030953164473866</v>
+        <v>1.055528805874917</v>
       </c>
       <c r="M15">
-        <v>1.041252895410823</v>
+        <v>1.061997900176159</v>
       </c>
       <c r="N15">
-        <v>1.031310457447946</v>
+        <v>1.045148317935046</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.003230952566069</v>
+        <v>1.037640968628441</v>
       </c>
       <c r="D16">
-        <v>1.024611688870372</v>
+        <v>1.046009589366045</v>
       </c>
       <c r="E16">
-        <v>1.018775358209169</v>
+        <v>1.052549919052821</v>
       </c>
       <c r="F16">
-        <v>1.029194031668406</v>
+        <v>1.059016418487495</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046956802692985</v>
+        <v>1.042036773811172</v>
       </c>
       <c r="J16">
-        <v>1.031240587715766</v>
+        <v>1.043946359272968</v>
       </c>
       <c r="K16">
-        <v>1.03851493326818</v>
+        <v>1.049411804225503</v>
       </c>
       <c r="L16">
-        <v>1.032777987906803</v>
+        <v>1.055929469313179</v>
       </c>
       <c r="M16">
-        <v>1.043020262491917</v>
+        <v>1.062373862607157</v>
       </c>
       <c r="N16">
-        <v>1.032705067635271</v>
+        <v>1.045428882845457</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.004830150327498</v>
+        <v>1.037953589105005</v>
       </c>
       <c r="D17">
-        <v>1.025788618494111</v>
+        <v>1.046252340466694</v>
       </c>
       <c r="E17">
-        <v>1.020249579560739</v>
+        <v>1.052872989758828</v>
       </c>
       <c r="F17">
-        <v>1.030625891688012</v>
+        <v>1.059323332190221</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047422177223684</v>
+        <v>1.042110179003479</v>
       </c>
       <c r="J17">
-        <v>1.032103970095079</v>
+        <v>1.044122099555307</v>
       </c>
       <c r="K17">
-        <v>1.039359099815418</v>
+        <v>1.049582836269011</v>
       </c>
       <c r="L17">
-        <v>1.033911637540265</v>
+        <v>1.05618106307485</v>
       </c>
       <c r="M17">
-        <v>1.04411743265385</v>
+        <v>1.062609855688912</v>
       </c>
       <c r="N17">
-        <v>1.033569676116594</v>
+        <v>1.045604872699154</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005756690876449</v>
+        <v>1.038136017091262</v>
       </c>
       <c r="D18">
-        <v>1.026471050084016</v>
+        <v>1.046394010564051</v>
       </c>
       <c r="E18">
-        <v>1.021104873577368</v>
+        <v>1.053061605347308</v>
       </c>
       <c r="F18">
-        <v>1.031456365784867</v>
+        <v>1.059502486504918</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047690988840254</v>
+        <v>1.04215290150887</v>
       </c>
       <c r="J18">
-        <v>1.032603967669641</v>
+        <v>1.044224605062374</v>
       </c>
       <c r="K18">
-        <v>1.039847983951603</v>
+        <v>1.049682590620803</v>
       </c>
       <c r="L18">
-        <v>1.034568988951597</v>
+        <v>1.056327909535758</v>
       </c>
       <c r="M18">
-        <v>1.044753347578474</v>
+        <v>1.062747564205833</v>
       </c>
       <c r="N18">
-        <v>1.034070383745063</v>
+        <v>1.045707523775799</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006071571378159</v>
+        <v>1.038198234130971</v>
       </c>
       <c r="D19">
-        <v>1.026703062015939</v>
+        <v>1.046442329491028</v>
       </c>
       <c r="E19">
-        <v>1.021395737162363</v>
+        <v>1.053125947821792</v>
       </c>
       <c r="F19">
-        <v>1.031738747372581</v>
+        <v>1.059563596625641</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047782203642143</v>
+        <v>1.042167452896714</v>
       </c>
       <c r="J19">
-        <v>1.032773849952505</v>
+        <v>1.044259556610482</v>
       </c>
       <c r="K19">
-        <v>1.04001409251931</v>
+        <v>1.049716603260352</v>
       </c>
       <c r="L19">
-        <v>1.034792477043689</v>
+        <v>1.056377996626434</v>
       </c>
       <c r="M19">
-        <v>1.044969499422969</v>
+        <v>1.062794528993075</v>
       </c>
       <c r="N19">
-        <v>1.034240507280254</v>
+        <v>1.045742524959115</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.004659220615114</v>
+        <v>1.037920039417341</v>
       </c>
       <c r="D20">
-        <v>1.025662765975277</v>
+        <v>1.046226287542266</v>
       </c>
       <c r="E20">
-        <v>1.020091887101037</v>
+        <v>1.05283830932561</v>
       </c>
       <c r="F20">
-        <v>1.030472755666556</v>
+        <v>1.059290389094985</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047372520212041</v>
+        <v>1.042102312986878</v>
       </c>
       <c r="J20">
-        <v>1.032011711115706</v>
+        <v>1.044103244362035</v>
       </c>
       <c r="K20">
-        <v>1.039268892607152</v>
+        <v>1.049564486733715</v>
       </c>
       <c r="L20">
-        <v>1.033790411555593</v>
+        <v>1.056154059494893</v>
       </c>
       <c r="M20">
-        <v>1.044000136966235</v>
+        <v>1.062584529879287</v>
       </c>
       <c r="N20">
-        <v>1.033477286118889</v>
+        <v>1.045585990729346</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.999993128589718</v>
+        <v>1.037016566477614</v>
       </c>
       <c r="D21">
-        <v>1.022232466258516</v>
+        <v>1.045524829325622</v>
       </c>
       <c r="E21">
-        <v>1.015798208670397</v>
+        <v>1.051905217629418</v>
       </c>
       <c r="F21">
-        <v>1.026300863524547</v>
+        <v>1.05840377700697</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046009368821269</v>
+        <v>1.041889439601364</v>
       </c>
       <c r="J21">
-        <v>1.029491137097027</v>
+        <v>1.043595051428652</v>
       </c>
       <c r="K21">
-        <v>1.036804534174733</v>
+        <v>1.049069876778343</v>
       </c>
       <c r="L21">
-        <v>1.030486335580219</v>
+        <v>1.055427151426631</v>
       </c>
       <c r="M21">
-        <v>1.040800521194057</v>
+        <v>1.061902485064164</v>
       </c>
       <c r="N21">
-        <v>1.030953132595988</v>
+        <v>1.045077076103706</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.996999975899621</v>
+        <v>1.036449266294617</v>
       </c>
       <c r="D22">
-        <v>1.020037407333867</v>
+        <v>1.045084505976812</v>
       </c>
       <c r="E22">
-        <v>1.013054925325296</v>
+        <v>1.051320127396067</v>
       </c>
       <c r="F22">
-        <v>1.023633189320763</v>
+        <v>1.057847575444077</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045127709961601</v>
+        <v>1.041754760516084</v>
       </c>
       <c r="J22">
-        <v>1.027872410013142</v>
+        <v>1.043275532120103</v>
       </c>
       <c r="K22">
-        <v>1.035222102774707</v>
+        <v>1.04875885360766</v>
       </c>
       <c r="L22">
-        <v>1.028372123257331</v>
+        <v>1.054970993209793</v>
       </c>
       <c r="M22">
-        <v>1.038750569737422</v>
+        <v>1.061474188608213</v>
       </c>
       <c r="N22">
-        <v>1.029332106733974</v>
+        <v>1.04475710304109</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9985924902346756</v>
+        <v>1.036749931235537</v>
       </c>
       <c r="D23">
-        <v>1.021204769096541</v>
+        <v>1.0453178616555</v>
       </c>
       <c r="E23">
-        <v>1.014513446209916</v>
+        <v>1.051630144169312</v>
       </c>
       <c r="F23">
-        <v>1.025051717674766</v>
+        <v>1.058142309534849</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045597468420379</v>
+        <v>1.041826235545336</v>
       </c>
       <c r="J23">
-        <v>1.028733821411932</v>
+        <v>1.043444914737952</v>
       </c>
       <c r="K23">
-        <v>1.036064178163765</v>
+        <v>1.048923736420249</v>
       </c>
       <c r="L23">
-        <v>1.029496485724608</v>
+        <v>1.05521272752099</v>
       </c>
       <c r="M23">
-        <v>1.039841000111794</v>
+        <v>1.061701185637372</v>
       </c>
       <c r="N23">
-        <v>1.030194741435756</v>
+        <v>1.044926726201684</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.004736475659426</v>
+        <v>1.037935198824703</v>
       </c>
       <c r="D24">
-        <v>1.025719645813646</v>
+        <v>1.046238059498214</v>
       </c>
       <c r="E24">
-        <v>1.020163155710563</v>
+        <v>1.05285397938351</v>
       </c>
       <c r="F24">
-        <v>1.030541965762008</v>
+        <v>1.059305274239472</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047394966207444</v>
+        <v>1.042105867590193</v>
       </c>
       <c r="J24">
-        <v>1.032053410082924</v>
+        <v>1.044111764214989</v>
       </c>
       <c r="K24">
-        <v>1.039309664175298</v>
+        <v>1.049572778116802</v>
       </c>
       <c r="L24">
-        <v>1.033845200354548</v>
+        <v>1.056166260953696</v>
       </c>
       <c r="M24">
-        <v>1.044053150323413</v>
+        <v>1.062595973344327</v>
       </c>
       <c r="N24">
-        <v>1.033519044303423</v>
+        <v>1.045594522681468</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.011622666505271</v>
+        <v>1.039313836221037</v>
       </c>
       <c r="D25">
-        <v>1.030800779732224</v>
+        <v>1.047308930610489</v>
       </c>
       <c r="E25">
-        <v>1.026540131384286</v>
+        <v>1.054280986476997</v>
       </c>
       <c r="F25">
-        <v>1.036729510871237</v>
+        <v>1.060660186532083</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049377942479765</v>
+        <v>1.042426694412175</v>
       </c>
       <c r="J25">
-        <v>1.035765114148858</v>
+        <v>1.044885568666081</v>
       </c>
       <c r="K25">
-        <v>1.042939054644005</v>
+        <v>1.050325724501479</v>
       </c>
       <c r="L25">
-        <v>1.038739956950814</v>
+        <v>1.057276545915833</v>
       </c>
       <c r="M25">
-        <v>1.04878320191844</v>
+        <v>1.063636583613716</v>
       </c>
       <c r="N25">
-        <v>1.037236019414869</v>
+        <v>1.046369426023636</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_167/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_167/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040415947832038</v>
+        <v>1.016933908968847</v>
       </c>
       <c r="D2">
-        <v>1.048165430170753</v>
+        <v>1.034734716160902</v>
       </c>
       <c r="E2">
-        <v>1.055424580740648</v>
+        <v>1.031493069224149</v>
       </c>
       <c r="F2">
-        <v>1.06174510265412</v>
+        <v>1.041527619107699</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04267959705488</v>
+        <v>1.05088077450699</v>
       </c>
       <c r="J2">
-        <v>1.045502674048733</v>
+        <v>1.038619663094521</v>
       </c>
       <c r="K2">
-        <v>1.050926036191133</v>
+        <v>1.045730455519221</v>
       </c>
       <c r="L2">
-        <v>1.058165075871118</v>
+        <v>1.042530421303323</v>
       </c>
       <c r="M2">
-        <v>1.064468329782145</v>
+        <v>1.052437206720737</v>
       </c>
       <c r="N2">
-        <v>1.046987407766715</v>
+        <v>1.040094622147472</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041217604776512</v>
+        <v>1.020692260203195</v>
       </c>
       <c r="D3">
-        <v>1.048788668587357</v>
+        <v>1.037526258544498</v>
       </c>
       <c r="E3">
-        <v>1.056258035903114</v>
+        <v>1.035017184220591</v>
       </c>
       <c r="F3">
-        <v>1.062535270487316</v>
+        <v>1.044937045178418</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042861480100807</v>
+        <v>1.051928201204729</v>
       </c>
       <c r="J3">
-        <v>1.045950677701138</v>
+        <v>1.040634298724493</v>
       </c>
       <c r="K3">
-        <v>1.051361754033107</v>
+        <v>1.047700484566723</v>
       </c>
       <c r="L3">
-        <v>1.058811918596419</v>
+        <v>1.04522079205766</v>
       </c>
       <c r="M3">
-        <v>1.065073240252192</v>
+        <v>1.055025506457294</v>
       </c>
       <c r="N3">
-        <v>1.047436047635693</v>
+        <v>1.042112118791105</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041736979809363</v>
+        <v>1.023080932937111</v>
       </c>
       <c r="D4">
-        <v>1.04919255604656</v>
+        <v>1.039303815988213</v>
       </c>
       <c r="E4">
-        <v>1.056798761180355</v>
+        <v>1.037265734217744</v>
       </c>
       <c r="F4">
-        <v>1.063047670460327</v>
+        <v>1.047110301543085</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042978357773788</v>
+        <v>1.052586300300371</v>
       </c>
       <c r="J4">
-        <v>1.04624052594192</v>
+        <v>1.041912102655776</v>
       </c>
       <c r="K4">
-        <v>1.051643609634729</v>
+        <v>1.048949937485668</v>
       </c>
       <c r="L4">
-        <v>1.059231241356021</v>
+        <v>1.046934273632998</v>
       </c>
       <c r="M4">
-        <v>1.065465105241255</v>
+        <v>1.05667154528472</v>
       </c>
       <c r="N4">
-        <v>1.047726307494223</v>
+        <v>1.043391737350536</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041955478738236</v>
+        <v>1.02407508441845</v>
       </c>
       <c r="D5">
-        <v>1.049362494638217</v>
+        <v>1.040044392607347</v>
       </c>
       <c r="E5">
-        <v>1.057026420937879</v>
+        <v>1.038203640704089</v>
       </c>
       <c r="F5">
-        <v>1.063263346730049</v>
+        <v>1.04801629075821</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043027297806489</v>
+        <v>1.05285834291336</v>
       </c>
       <c r="J5">
-        <v>1.04636236723707</v>
+        <v>1.04244326227007</v>
       </c>
       <c r="K5">
-        <v>1.051762080515293</v>
+        <v>1.049469292113349</v>
       </c>
       <c r="L5">
-        <v>1.059407707811747</v>
+        <v>1.047648245425324</v>
       </c>
       <c r="M5">
-        <v>1.065629950718166</v>
+        <v>1.057356827989373</v>
       </c>
       <c r="N5">
-        <v>1.047848321817987</v>
+        <v>1.043923651272407</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041992174628584</v>
+        <v>1.02424142628086</v>
       </c>
       <c r="D6">
-        <v>1.049391036483504</v>
+        <v>1.040168350280683</v>
       </c>
       <c r="E6">
-        <v>1.057064665823094</v>
+        <v>1.038360692754315</v>
       </c>
       <c r="F6">
-        <v>1.063299575105909</v>
+        <v>1.048167968149931</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043035503576658</v>
+        <v>1.052903751375784</v>
       </c>
       <c r="J6">
-        <v>1.046382824249078</v>
+        <v>1.04253209692948</v>
       </c>
       <c r="K6">
-        <v>1.051781971014188</v>
+        <v>1.049556151084839</v>
       </c>
       <c r="L6">
-        <v>1.059437347997364</v>
+        <v>1.047767755545236</v>
       </c>
       <c r="M6">
-        <v>1.065657635132789</v>
+        <v>1.057471501314735</v>
       </c>
       <c r="N6">
-        <v>1.047868807881299</v>
+        <v>1.044012612087223</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041739898801196</v>
+        <v>1.02309425592038</v>
       </c>
       <c r="D7">
-        <v>1.049194826209662</v>
+        <v>1.039313737740091</v>
       </c>
       <c r="E7">
-        <v>1.056801801852327</v>
+        <v>1.037278295289534</v>
       </c>
       <c r="F7">
-        <v>1.063050551305126</v>
+        <v>1.047122437177603</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042979012481392</v>
+        <v>1.052589953400762</v>
       </c>
       <c r="J7">
-        <v>1.046242154035762</v>
+        <v>1.041919223535378</v>
       </c>
       <c r="K7">
-        <v>1.051645192733485</v>
+        <v>1.048956900190825</v>
       </c>
       <c r="L7">
-        <v>1.059233598591868</v>
+        <v>1.046943838582559</v>
       </c>
       <c r="M7">
-        <v>1.065467307502415</v>
+        <v>1.056680728212747</v>
       </c>
       <c r="N7">
-        <v>1.047727937900145</v>
+        <v>1.043398868342604</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040686736008059</v>
+        <v>1.018213199386302</v>
       </c>
       <c r="D8">
-        <v>1.048375928981011</v>
+        <v>1.035684193486744</v>
       </c>
       <c r="E8">
-        <v>1.0557059547098</v>
+        <v>1.032690781217373</v>
       </c>
       <c r="F8">
-        <v>1.062011912797706</v>
+        <v>1.042686792657854</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042741233129931</v>
+        <v>1.051238878541988</v>
       </c>
       <c r="J8">
-        <v>1.045654086491492</v>
+        <v>1.039305951400095</v>
       </c>
       <c r="K8">
-        <v>1.05107330544564</v>
+        <v>1.046401557224785</v>
       </c>
       <c r="L8">
-        <v>1.058383518465967</v>
+        <v>1.043445419674874</v>
       </c>
       <c r="M8">
-        <v>1.064672668441547</v>
+        <v>1.053317997600892</v>
       </c>
       <c r="N8">
-        <v>1.047139035232511</v>
+        <v>1.040781885061142</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038835981786538</v>
+        <v>1.009266790171809</v>
       </c>
       <c r="D9">
-        <v>1.046937685510188</v>
+        <v>1.02905997690944</v>
       </c>
       <c r="E9">
-        <v>1.053785930256196</v>
+        <v>1.024352950810576</v>
       </c>
       <c r="F9">
-        <v>1.06019028068888</v>
+        <v>1.034608500834684</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04231604356288</v>
+        <v>1.048703641786183</v>
       </c>
       <c r="J9">
-        <v>1.044617587357594</v>
+        <v>1.034496505116837</v>
       </c>
       <c r="K9">
-        <v>1.050064991171079</v>
+        <v>1.04169853631652</v>
       </c>
       <c r="L9">
-        <v>1.056891559140427</v>
+        <v>1.037062899216548</v>
       </c>
       <c r="M9">
-        <v>1.063275914679038</v>
+        <v>1.047163969368871</v>
       </c>
       <c r="N9">
-        <v>1.046101064150954</v>
+        <v>1.03596560881251</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037605650610359</v>
+        <v>1.003049372636492</v>
       </c>
       <c r="D10">
-        <v>1.045982166684803</v>
+        <v>1.024478130414266</v>
       </c>
       <c r="E10">
-        <v>1.052513432535449</v>
+        <v>1.018608127857657</v>
       </c>
       <c r="F10">
-        <v>1.0589817528378</v>
+        <v>1.029031573631729</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042028465684319</v>
+        <v>1.046903851727418</v>
       </c>
       <c r="J10">
-        <v>1.043926498849202</v>
+        <v>1.031142525279069</v>
       </c>
       <c r="K10">
-        <v>1.049392475213435</v>
+        <v>1.03841905555061</v>
       </c>
       <c r="L10">
-        <v>1.05590104983795</v>
+        <v>1.032649342751305</v>
       </c>
       <c r="M10">
-        <v>1.062347200971661</v>
+        <v>1.042895718444805</v>
       </c>
       <c r="N10">
-        <v>1.045408994217611</v>
+        <v>1.032606865938666</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03707375765913</v>
+        <v>1.000292141310787</v>
       </c>
       <c r="D11">
-        <v>1.045569225157236</v>
+        <v>1.022451981605651</v>
       </c>
       <c r="E11">
-        <v>1.051964236581255</v>
+        <v>1.016072725208509</v>
       </c>
       <c r="F11">
-        <v>1.058459871042979</v>
+        <v>1.02656772177824</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041902974020509</v>
+        <v>1.046097145866806</v>
       </c>
       <c r="J11">
-        <v>1.043627245329493</v>
+        <v>1.029652771911098</v>
       </c>
       <c r="K11">
-        <v>1.049101212776625</v>
+        <v>1.036962553801033</v>
       </c>
       <c r="L11">
-        <v>1.055473149763529</v>
+        <v>1.03069776808556</v>
       </c>
       <c r="M11">
-        <v>1.061945661499806</v>
+        <v>1.04100541911263</v>
       </c>
       <c r="N11">
-        <v>1.04510931572358</v>
+        <v>1.031114996950035</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036876318254227</v>
+        <v>0.9992577588149237</v>
       </c>
       <c r="D12">
-        <v>1.045415963060551</v>
+        <v>1.021692784914613</v>
       </c>
       <c r="E12">
-        <v>1.051760513922685</v>
+        <v>1.015123444927256</v>
       </c>
       <c r="F12">
-        <v>1.058266236195366</v>
+        <v>1.025644851742398</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041856216072839</v>
+        <v>1.045793260542368</v>
       </c>
       <c r="J12">
-        <v>1.043516089437607</v>
+        <v>1.029093564873675</v>
       </c>
       <c r="K12">
-        <v>1.048993017516726</v>
+        <v>1.036415860913692</v>
       </c>
       <c r="L12">
-        <v>1.05531436018036</v>
+        <v>1.029966528099627</v>
       </c>
       <c r="M12">
-        <v>1.06179660369647</v>
+        <v>1.040296694394449</v>
       </c>
       <c r="N12">
-        <v>1.044998001977576</v>
+        <v>1.030554995774478</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03691866379537</v>
+        <v>0.9994801075588192</v>
       </c>
       <c r="D13">
-        <v>1.045448832714077</v>
+        <v>1.021855937903594</v>
       </c>
       <c r="E13">
-        <v>1.051804200728426</v>
+        <v>1.01532741448596</v>
       </c>
       <c r="F13">
-        <v>1.058307761750944</v>
+        <v>1.025843163673022</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041866252349694</v>
+        <v>1.045858638869923</v>
       </c>
       <c r="J13">
-        <v>1.043539932723702</v>
+        <v>1.0292137848844</v>
       </c>
       <c r="K13">
-        <v>1.049016226080977</v>
+        <v>1.036533388987552</v>
       </c>
       <c r="L13">
-        <v>1.055348414198293</v>
+        <v>1.03012367265948</v>
       </c>
       <c r="M13">
-        <v>1.06182857291764</v>
+        <v>1.040449020418639</v>
       </c>
       <c r="N13">
-        <v>1.045021879123873</v>
+        <v>1.030675386511407</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037057434607641</v>
+        <v>1.000206850197197</v>
       </c>
       <c r="D14">
-        <v>1.04555655394891</v>
+        <v>1.022389362241687</v>
       </c>
       <c r="E14">
-        <v>1.051947391217706</v>
+        <v>1.015994412748927</v>
       </c>
       <c r="F14">
-        <v>1.058443860721903</v>
+        <v>1.026491595768978</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041899111942568</v>
+        <v>1.04607211382701</v>
       </c>
       <c r="J14">
-        <v>1.043618057137196</v>
+        <v>1.029606668252795</v>
       </c>
       <c r="K14">
-        <v>1.049092269466124</v>
+        <v>1.036917481157511</v>
       </c>
       <c r="L14">
-        <v>1.055460021065101</v>
+        <v>1.030637454393932</v>
       </c>
       <c r="M14">
-        <v>1.061933338451824</v>
+        <v>1.040946971530869</v>
       </c>
       <c r="N14">
-        <v>1.045100114482995</v>
+        <v>1.031068827819249</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037142953076064</v>
+        <v>1.000653251612798</v>
       </c>
       <c r="D15">
-        <v>1.045622940882818</v>
+        <v>1.02271714076175</v>
       </c>
       <c r="E15">
-        <v>1.052035651866177</v>
+        <v>1.016404365944382</v>
       </c>
       <c r="F15">
-        <v>1.058527744381403</v>
+        <v>1.026890087793354</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041919338663305</v>
+        <v>1.046203077262283</v>
       </c>
       <c r="J15">
-        <v>1.043666192231891</v>
+        <v>1.029847955226313</v>
       </c>
       <c r="K15">
-        <v>1.049139121363197</v>
+        <v>1.037153373614342</v>
       </c>
       <c r="L15">
-        <v>1.055528805874917</v>
+        <v>1.030953164473866</v>
       </c>
       <c r="M15">
-        <v>1.061997900176159</v>
+        <v>1.041252895410823</v>
       </c>
       <c r="N15">
-        <v>1.045148317935046</v>
+        <v>1.031310457447946</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037640968628441</v>
+        <v>1.003230952566069</v>
       </c>
       <c r="D16">
-        <v>1.046009589366045</v>
+        <v>1.024611688870372</v>
       </c>
       <c r="E16">
-        <v>1.052549919052821</v>
+        <v>1.018775358209168</v>
       </c>
       <c r="F16">
-        <v>1.059016418487495</v>
+        <v>1.029194031668405</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042036773811172</v>
+        <v>1.046956802692985</v>
       </c>
       <c r="J16">
-        <v>1.043946359272968</v>
+        <v>1.031240587715765</v>
       </c>
       <c r="K16">
-        <v>1.049411804225503</v>
+        <v>1.038514933268179</v>
       </c>
       <c r="L16">
-        <v>1.055929469313179</v>
+        <v>1.032777987906802</v>
       </c>
       <c r="M16">
-        <v>1.062373862607157</v>
+        <v>1.043020262491916</v>
       </c>
       <c r="N16">
-        <v>1.045428882845457</v>
+        <v>1.03270506763527</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037953589105005</v>
+        <v>1.004830150327498</v>
       </c>
       <c r="D17">
-        <v>1.046252340466694</v>
+        <v>1.025788618494111</v>
       </c>
       <c r="E17">
-        <v>1.052872989758828</v>
+        <v>1.02024957956074</v>
       </c>
       <c r="F17">
-        <v>1.059323332190221</v>
+        <v>1.030625891688012</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042110179003479</v>
+        <v>1.047422177223684</v>
       </c>
       <c r="J17">
-        <v>1.044122099555307</v>
+        <v>1.032103970095079</v>
       </c>
       <c r="K17">
-        <v>1.049582836269011</v>
+        <v>1.039359099815418</v>
       </c>
       <c r="L17">
-        <v>1.05618106307485</v>
+        <v>1.033911637540265</v>
       </c>
       <c r="M17">
-        <v>1.062609855688912</v>
+        <v>1.04411743265385</v>
       </c>
       <c r="N17">
-        <v>1.045604872699154</v>
+        <v>1.033569676116594</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038136017091262</v>
+        <v>1.00575669087645</v>
       </c>
       <c r="D18">
-        <v>1.046394010564051</v>
+        <v>1.026471050084017</v>
       </c>
       <c r="E18">
-        <v>1.053061605347308</v>
+        <v>1.021104873577368</v>
       </c>
       <c r="F18">
-        <v>1.059502486504918</v>
+        <v>1.031456365784868</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04215290150887</v>
+        <v>1.047690988840254</v>
       </c>
       <c r="J18">
-        <v>1.044224605062374</v>
+        <v>1.032603967669642</v>
       </c>
       <c r="K18">
-        <v>1.049682590620803</v>
+        <v>1.039847983951603</v>
       </c>
       <c r="L18">
-        <v>1.056327909535758</v>
+        <v>1.034568988951598</v>
       </c>
       <c r="M18">
-        <v>1.062747564205833</v>
+        <v>1.044753347578474</v>
       </c>
       <c r="N18">
-        <v>1.045707523775799</v>
+        <v>1.034070383745064</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038198234130971</v>
+        <v>1.00607157137816</v>
       </c>
       <c r="D19">
-        <v>1.046442329491028</v>
+        <v>1.026703062015939</v>
       </c>
       <c r="E19">
-        <v>1.053125947821792</v>
+        <v>1.021395737162363</v>
       </c>
       <c r="F19">
-        <v>1.059563596625641</v>
+        <v>1.031738747372581</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042167452896714</v>
+        <v>1.047782203642143</v>
       </c>
       <c r="J19">
-        <v>1.044259556610482</v>
+        <v>1.032773849952505</v>
       </c>
       <c r="K19">
-        <v>1.049716603260352</v>
+        <v>1.040014092519311</v>
       </c>
       <c r="L19">
-        <v>1.056377996626434</v>
+        <v>1.03479247704369</v>
       </c>
       <c r="M19">
-        <v>1.062794528993075</v>
+        <v>1.044969499422969</v>
       </c>
       <c r="N19">
-        <v>1.045742524959115</v>
+        <v>1.034240507280254</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037920039417341</v>
+        <v>1.004659220615114</v>
       </c>
       <c r="D20">
-        <v>1.046226287542266</v>
+        <v>1.025662765975277</v>
       </c>
       <c r="E20">
-        <v>1.05283830932561</v>
+        <v>1.020091887101038</v>
       </c>
       <c r="F20">
-        <v>1.059290389094985</v>
+        <v>1.030472755666556</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042102312986878</v>
+        <v>1.047372520212042</v>
       </c>
       <c r="J20">
-        <v>1.044103244362035</v>
+        <v>1.032011711115707</v>
       </c>
       <c r="K20">
-        <v>1.049564486733715</v>
+        <v>1.039268892607152</v>
       </c>
       <c r="L20">
-        <v>1.056154059494893</v>
+        <v>1.033790411555593</v>
       </c>
       <c r="M20">
-        <v>1.062584529879287</v>
+        <v>1.044000136966235</v>
       </c>
       <c r="N20">
-        <v>1.045585990729346</v>
+        <v>1.033477286118889</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037016566477614</v>
+        <v>0.9999931285897178</v>
       </c>
       <c r="D21">
-        <v>1.045524829325622</v>
+        <v>1.022232466258516</v>
       </c>
       <c r="E21">
-        <v>1.051905217629418</v>
+        <v>1.015798208670397</v>
       </c>
       <c r="F21">
-        <v>1.05840377700697</v>
+        <v>1.026300863524547</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041889439601364</v>
+        <v>1.046009368821269</v>
       </c>
       <c r="J21">
-        <v>1.043595051428652</v>
+        <v>1.029491137097027</v>
       </c>
       <c r="K21">
-        <v>1.049069876778343</v>
+        <v>1.036804534174733</v>
       </c>
       <c r="L21">
-        <v>1.055427151426631</v>
+        <v>1.03048633558022</v>
       </c>
       <c r="M21">
-        <v>1.061902485064164</v>
+        <v>1.040800521194057</v>
       </c>
       <c r="N21">
-        <v>1.045077076103706</v>
+        <v>1.030953132595988</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036449266294617</v>
+        <v>0.9969999758996216</v>
       </c>
       <c r="D22">
-        <v>1.045084505976812</v>
+        <v>1.020037407333868</v>
       </c>
       <c r="E22">
-        <v>1.051320127396067</v>
+        <v>1.013054925325297</v>
       </c>
       <c r="F22">
-        <v>1.057847575444077</v>
+        <v>1.023633189320763</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041754760516084</v>
+        <v>1.045127709961601</v>
       </c>
       <c r="J22">
-        <v>1.043275532120103</v>
+        <v>1.027872410013143</v>
       </c>
       <c r="K22">
-        <v>1.04875885360766</v>
+        <v>1.035222102774707</v>
       </c>
       <c r="L22">
-        <v>1.054970993209793</v>
+        <v>1.028372123257332</v>
       </c>
       <c r="M22">
-        <v>1.061474188608213</v>
+        <v>1.038750569737422</v>
       </c>
       <c r="N22">
-        <v>1.04475710304109</v>
+        <v>1.029332106733975</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036749931235537</v>
+        <v>0.9985924902346759</v>
       </c>
       <c r="D23">
-        <v>1.0453178616555</v>
+        <v>1.021204769096541</v>
       </c>
       <c r="E23">
-        <v>1.051630144169312</v>
+        <v>1.014513446209916</v>
       </c>
       <c r="F23">
-        <v>1.058142309534849</v>
+        <v>1.025051717674767</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041826235545336</v>
+        <v>1.045597468420379</v>
       </c>
       <c r="J23">
-        <v>1.043444914737952</v>
+        <v>1.028733821411933</v>
       </c>
       <c r="K23">
-        <v>1.048923736420249</v>
+        <v>1.036064178163766</v>
       </c>
       <c r="L23">
-        <v>1.05521272752099</v>
+        <v>1.029496485724608</v>
       </c>
       <c r="M23">
-        <v>1.061701185637372</v>
+        <v>1.039841000111794</v>
       </c>
       <c r="N23">
-        <v>1.044926726201684</v>
+        <v>1.030194741435756</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037935198824703</v>
+        <v>1.004736475659426</v>
       </c>
       <c r="D24">
-        <v>1.046238059498214</v>
+        <v>1.025719645813645</v>
       </c>
       <c r="E24">
-        <v>1.05285397938351</v>
+        <v>1.020163155710562</v>
       </c>
       <c r="F24">
-        <v>1.059305274239472</v>
+        <v>1.030541965762008</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042105867590193</v>
+        <v>1.047394966207444</v>
       </c>
       <c r="J24">
-        <v>1.044111764214989</v>
+        <v>1.032053410082924</v>
       </c>
       <c r="K24">
-        <v>1.049572778116802</v>
+        <v>1.039309664175297</v>
       </c>
       <c r="L24">
-        <v>1.056166260953696</v>
+        <v>1.033845200354548</v>
       </c>
       <c r="M24">
-        <v>1.062595973344327</v>
+        <v>1.044053150323413</v>
       </c>
       <c r="N24">
-        <v>1.045594522681468</v>
+        <v>1.033519044303423</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039313836221037</v>
+        <v>1.011622666505271</v>
       </c>
       <c r="D25">
-        <v>1.047308930610489</v>
+        <v>1.030800779732224</v>
       </c>
       <c r="E25">
-        <v>1.054280986476997</v>
+        <v>1.026540131384286</v>
       </c>
       <c r="F25">
-        <v>1.060660186532083</v>
+        <v>1.036729510871237</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042426694412175</v>
+        <v>1.049377942479765</v>
       </c>
       <c r="J25">
-        <v>1.044885568666081</v>
+        <v>1.035765114148858</v>
       </c>
       <c r="K25">
-        <v>1.050325724501479</v>
+        <v>1.042939054644005</v>
       </c>
       <c r="L25">
-        <v>1.057276545915833</v>
+        <v>1.038739956950815</v>
       </c>
       <c r="M25">
-        <v>1.063636583613716</v>
+        <v>1.04878320191844</v>
       </c>
       <c r="N25">
-        <v>1.046369426023636</v>
+        <v>1.037236019414869</v>
       </c>
     </row>
   </sheetData>
